--- a/server/templates/excel/Concentrated-Cabinet.xlsx
+++ b/server/templates/excel/Concentrated-Cabinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF322196-2B8F-4518-AE74-0AA8745B19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87018B32-A00D-42DC-99BF-C9DAA9576889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -195,9 +195,6 @@
     <t>{finished_at}</t>
   </si>
   <si>
-    <t>{approved_by}</t>
-  </si>
-  <si>
     <t>{inspected_by}</t>
   </si>
   <si>
@@ -214,6 +211,12 @@
   </si>
   <si>
     <t>Monthly Inspection for CT Concentrated Cabinet</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
   </si>
 </sst>
 </file>
@@ -979,6 +982,15 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,15 +1055,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,8 +1430,8 @@
   </sheetPr>
   <dimension ref="A1:Z294"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:M3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -1454,16 +1457,16 @@
       <c r="C1"/>
       <c r="D1" s="73"/>
       <c r="E1" s="71"/>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:15" ht="14.1" customHeight="1" thickTop="1">
       <c r="A2" s="32" t="s">
@@ -1487,23 +1490,23 @@
       <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A3" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
+      <c r="A3" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:15" ht="14.1" customHeight="1" thickTop="1">
       <c r="A4" s="39"/>
@@ -1527,25 +1530,25 @@
       <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A5" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="A5" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="1:15" ht="40.15" customHeight="1" thickTop="1">
       <c r="A6" s="68"/>
@@ -1599,11 +1602,11 @@
     </row>
     <row r="8" spans="1:15" ht="27" customHeight="1">
       <c r="A8" s="49"/>
-      <c r="B8" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
+      <c r="B8" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="18"/>
       <c r="F8" s="77"/>
       <c r="G8" s="21"/>
@@ -1668,15 +1671,15 @@
       <c r="B12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="92" t="s">
         <v>24</v>
       </c>
@@ -1710,15 +1713,15 @@
       <c r="B14" s="27">
         <v>1</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
@@ -1731,15 +1734,15 @@
       <c r="B15" s="27">
         <v>2</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
@@ -1753,15 +1756,15 @@
       <c r="B16" s="27">
         <v>3</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17" t="s">
@@ -1774,15 +1777,15 @@
       <c r="B17" s="27">
         <v>4</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
@@ -1796,15 +1799,15 @@
       <c r="B18" s="27">
         <v>5</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="124"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
@@ -1818,15 +1821,15 @@
       <c r="B19" s="27">
         <v>6</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
@@ -1840,15 +1843,15 @@
       <c r="B20" s="27">
         <v>7</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
@@ -1861,15 +1864,15 @@
       <c r="B21" s="27">
         <v>8</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="124"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
@@ -1882,15 +1885,15 @@
       <c r="B22" s="27">
         <v>9</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="124"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17" t="s">
@@ -1903,15 +1906,15 @@
       <c r="B23" s="27">
         <v>10</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="124"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17" t="s">
@@ -1924,15 +1927,15 @@
       <c r="B24" s="27">
         <v>11</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="124"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17" t="s">
@@ -1945,15 +1948,15 @@
       <c r="B25" s="27">
         <v>12</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
@@ -2071,7 +2074,7 @@
     <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2134,7 +2137,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2149,13 +2152,13 @@
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="29"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
@@ -2814,15 +2817,6 @@
     <row r="294" ht="14.65" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C21:I21"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="C12:I12"/>
@@ -2839,6 +2833,15 @@
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C21:I21"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba el nombre de Urbanizadora." sqref="B35:G36" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -2863,6 +2866,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </OMContract>
+    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </ASBDrawing>
+    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </CommencementNotice>
+    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008718130C2962994C90036D787BFA6B4C" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15183c27e6178b658cfb250166ea54db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7165ecc1-11a1-4a26-a452-208ffd706532" xmlns:ns3="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e37365f111de1e71a8bd4cd3815cdbf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3169,42 +3207,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </OMContract>
-    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </ASBDrawing>
-    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </CommencementNotice>
-    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4F25F7-5A88-4D2F-B254-DD75AD67A8D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3223,30 +3252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>